--- a/munkaidő_elszámoló_dokumentáció (version 1).xlsb.xlsx
+++ b/munkaidő_elszámoló_dokumentáció (version 1).xlsb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bende\Documents\vscode\Kukutyinfalva-furdoje\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48B37D05-08DC-46C5-B0E2-FFCE15FB588B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9211F756-92C2-41F8-BCB4-A1681D0AED8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Konzultációk" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,11 @@
     <sheet name="Egyéni munka - Nagy Nándor" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
   <si>
     <t>Elvégzett feladat leírása</t>
   </si>
@@ -114,6 +113,9 @@
   </si>
   <si>
     <t>Weboldal fejléce és a mellék oldalak</t>
+  </si>
+  <si>
+    <t>weboldal fejléce lábléce és mellék oldalak</t>
   </si>
 </sst>
 </file>
@@ -559,8 +561,8 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,8 +752,12 @@
       <c r="C14" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="4"/>
+      <c r="D14" s="14">
+        <v>45784</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0.93055555555555558</v>
+      </c>
       <c r="F14" s="4" t="s">
         <v>21</v>
       </c>
@@ -791,10 +797,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,7 +870,26 @@
       <c r="D4" s="14">
         <v>45783</v>
       </c>
-      <c r="E4" s="15"/>
+      <c r="E4" s="15">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="14">
+        <v>45784</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="14">
+        <v>45784</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0.93055555555555558</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -884,7 +909,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,10 +967,21 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="14">
+        <v>45784</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="14">
+        <v>45784</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0.93055555555555558</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -962,10 +998,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,6 +1058,23 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="14">
+        <v>45784</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="14">
+        <v>45784</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0.93055555555555558</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>

--- a/munkaidő_elszámoló_dokumentáció (version 1).xlsb.xlsx
+++ b/munkaidő_elszámoló_dokumentáció (version 1).xlsb.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bende\Documents\vscode\Kukutyinfalva-furdoje\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9211F756-92C2-41F8-BCB4-A1681D0AED8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8A4EBF-7508-4405-8591-8AF8165A991B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
   <si>
     <t>Elvégzett feladat leírása</t>
   </si>
@@ -79,9 +79,6 @@
     <t>3. alkalom</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
     <t>Nagy Nándor</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>mellékoldalak</t>
   </si>
   <si>
-    <t>Weboldal fejléce,labléce és a mellék oldalak</t>
-  </si>
-  <si>
     <t>Mellék oldallak,lábléc</t>
   </si>
   <si>
@@ -112,17 +106,38 @@
     <t>fejléc ,lábléc,mellékoldalak</t>
   </si>
   <si>
-    <t>Weboldal fejléce és a mellék oldalak</t>
-  </si>
-  <si>
     <t>weboldal fejléce lábléce és mellék oldalak</t>
+  </si>
+  <si>
+    <t>Kérdőív</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bakos Bendegúz </t>
+  </si>
+  <si>
+    <t>4. alkalom</t>
+  </si>
+  <si>
+    <t>kérdőív,végső simítások</t>
+  </si>
+  <si>
+    <t>15.20</t>
+  </si>
+  <si>
+    <t>Weboldal fejléce és a mellék oldalak elkészítése</t>
+  </si>
+  <si>
+    <t>Weboldal fejléce,labléce és a mellék oldalak elkészítése vagy befejezése</t>
+  </si>
+  <si>
+    <t>a kérdő ív elkészítése más vizuális elemek hozzáadása és pár végső simítás</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +163,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -562,7 +583,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:E14"/>
+      <selection activeCell="B15" sqref="B15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +611,7 @@
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
@@ -601,18 +622,22 @@
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
       <c r="H4" s="4"/>
@@ -710,7 +735,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>15</v>
@@ -733,13 +758,13 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="H13" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="13" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -750,7 +775,7 @@
         <v>45784</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" s="14">
         <v>45784</v>
@@ -759,26 +784,40 @@
         <v>0.93055555555555558</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="13" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="B15" s="14">
+        <v>45785</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="14">
+        <v>45785</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -788,6 +827,7 @@
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="H10:H11"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -797,10 +837,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:E5"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,19 +916,36 @@
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B5" s="14">
         <v>45784</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" s="14">
         <v>45784</v>
       </c>
       <c r="E5" s="15">
         <v>0.93055555555555558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="14">
+        <v>45785</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="14">
+        <v>45785</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0.72222222222222221</v>
       </c>
     </row>
   </sheetData>
@@ -974,7 +1031,7 @@
         <v>45784</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" s="14">
         <v>45784</v>
@@ -1001,7 +1058,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,7 +1100,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="14">
         <v>45783</v>
@@ -1060,13 +1117,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="14">
         <v>45784</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" s="14">
         <v>45784</v>
